--- a/dmsan/newgen/scores/Senegal/sys_uncertainties.xlsx
+++ b/dmsan/newgen/scores/Senegal/sys_uncertainties.xlsx
@@ -32770,7 +32770,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>46.8968874403418</v>
+        <v>46.89688744034181</v>
       </c>
       <c r="C4" t="n">
         <v>34.31755785393648</v>
@@ -32782,16 +32782,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1901237825064611</v>
+        <v>0.1894733990537578</v>
       </c>
       <c r="G4" t="n">
-        <v>7.204372883363715</v>
+        <v>7.198548727723725</v>
       </c>
       <c r="H4" t="n">
-        <v>10.19098035560661</v>
+        <v>10.16195510768069</v>
       </c>
       <c r="I4" t="n">
-        <v>79.14830049874504</v>
+        <v>78.96857389873105</v>
       </c>
     </row>
     <row r="5">
@@ -32799,28 +32799,28 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>57.1414801959084</v>
+        <v>57.14148019590839</v>
       </c>
       <c r="C5" t="n">
-        <v>50.03975555931072</v>
+        <v>50.03975555931069</v>
       </c>
       <c r="D5" t="n">
-        <v>39.67798162418904</v>
+        <v>39.67798162418903</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3801011818720216</v>
+        <v>0.3790279114210643</v>
       </c>
       <c r="G5" t="n">
-        <v>12.71166463655646</v>
+        <v>12.70029692601496</v>
       </c>
       <c r="H5" t="n">
-        <v>18.09530295677962</v>
+        <v>18.04783282870606</v>
       </c>
       <c r="I5" t="n">
-        <v>162.4112043532542</v>
+        <v>162.0245397088112</v>
       </c>
     </row>
     <row r="6">
@@ -32831,25 +32831,25 @@
         <v>60.66573663991131</v>
       </c>
       <c r="C6" t="n">
-        <v>37.81260927512211</v>
+        <v>37.81260927512209</v>
       </c>
       <c r="D6" t="n">
-        <v>30.5084125365912</v>
+        <v>30.50841253659119</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2784231781380819</v>
+        <v>0.2777011375046923</v>
       </c>
       <c r="G6" t="n">
-        <v>20.80039538881044</v>
+        <v>20.79302532263783</v>
       </c>
       <c r="H6" t="n">
-        <v>14.25647515092591</v>
+        <v>14.22210556702653</v>
       </c>
       <c r="I6" t="n">
-        <v>127.6000738990812</v>
+        <v>127.3220922751598</v>
       </c>
     </row>
     <row r="7">
@@ -32857,28 +32857,28 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>48.11700516564426</v>
+        <v>48.11700516564425</v>
       </c>
       <c r="C7" t="n">
         <v>34.86351117114575</v>
       </c>
       <c r="D7" t="n">
-        <v>22.97584645293637</v>
+        <v>22.97584645293636</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2399837411623135</v>
+        <v>0.2395861535926479</v>
       </c>
       <c r="G7" t="n">
-        <v>9.509123675778969</v>
+        <v>9.505543044985341</v>
       </c>
       <c r="H7" t="n">
-        <v>10.50966433410546</v>
+        <v>10.4946761699887</v>
       </c>
       <c r="I7" t="n">
-        <v>108.3898122048892</v>
+        <v>108.2572355491173</v>
       </c>
     </row>
     <row r="8">
@@ -32889,7 +32889,7 @@
         <v>42.69198303380948</v>
       </c>
       <c r="C8" t="n">
-        <v>38.78841935909846</v>
+        <v>38.78841935909845</v>
       </c>
       <c r="D8" t="n">
         <v>18.77376226326885</v>
@@ -32898,16 +32898,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1530561408476361</v>
+        <v>0.1519872855299866</v>
       </c>
       <c r="G8" t="n">
-        <v>13.95789434176646</v>
+        <v>13.9476058443606</v>
       </c>
       <c r="H8" t="n">
-        <v>8.039608234076818</v>
+        <v>7.991027761082347</v>
       </c>
       <c r="I8" t="n">
-        <v>70.98808092983394</v>
+        <v>70.64450112671787</v>
       </c>
     </row>
     <row r="9">
@@ -32927,16 +32927,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.274614529543687</v>
+        <v>0.2734223977960186</v>
       </c>
       <c r="G9" t="n">
-        <v>12.66637926963053</v>
+        <v>12.65583184612468</v>
       </c>
       <c r="H9" t="n">
-        <v>11.34305392960169</v>
+        <v>11.29784045833789</v>
       </c>
       <c r="I9" t="n">
-        <v>103.0628420437066</v>
+        <v>102.7068050883542</v>
       </c>
     </row>
     <row r="10">
@@ -32947,7 +32947,7 @@
         <v>42.33394255412094</v>
       </c>
       <c r="C10" t="n">
-        <v>28.94794633755075</v>
+        <v>28.94794633755076</v>
       </c>
       <c r="D10" t="n">
         <v>22.65748014722023</v>
@@ -32956,16 +32956,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1935881606239216</v>
+        <v>0.1927691057871796</v>
       </c>
       <c r="G10" t="n">
-        <v>11.31310546561668</v>
+        <v>11.30491574695251</v>
       </c>
       <c r="H10" t="n">
-        <v>10.00750253368819</v>
+        <v>9.969092636002125</v>
       </c>
       <c r="I10" t="n">
-        <v>83.27243231334393</v>
+        <v>83.00594187392049</v>
       </c>
     </row>
     <row r="11">
@@ -32973,28 +32973,28 @@
         <v>7</v>
       </c>
       <c r="B11" t="n">
-        <v>61.53325344217922</v>
+        <v>61.53325344217923</v>
       </c>
       <c r="C11" t="n">
-        <v>61.14664099036</v>
+        <v>61.14664099036003</v>
       </c>
       <c r="D11" t="n">
-        <v>46.06736191633664</v>
+        <v>46.06736191633666</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4426239341785579</v>
+        <v>0.4421807070160731</v>
       </c>
       <c r="G11" t="n">
-        <v>17.62836456190796</v>
+        <v>17.62386725166899</v>
       </c>
       <c r="H11" t="n">
-        <v>21.78999344409683</v>
+        <v>21.77058365976189</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4287800915666</v>
+        <v>210.2555998735215</v>
       </c>
     </row>
     <row r="12">
@@ -33005,25 +33005,25 @@
         <v>43.31831594868412</v>
       </c>
       <c r="C12" t="n">
-        <v>30.4248280973764</v>
+        <v>30.42482809737641</v>
       </c>
       <c r="D12" t="n">
-        <v>20.30107808098007</v>
+        <v>20.30107808098008</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2087368069304959</v>
+        <v>0.2077873303970509</v>
       </c>
       <c r="G12" t="n">
-        <v>11.84782322695354</v>
+        <v>11.83931379973844</v>
       </c>
       <c r="H12" t="n">
-        <v>9.420819019226094</v>
+        <v>9.381647485448701</v>
       </c>
       <c r="I12" t="n">
-        <v>83.53466163535681</v>
+        <v>83.24438046911582</v>
       </c>
     </row>
     <row r="13">
@@ -33031,7 +33031,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="n">
-        <v>55.06993129305874</v>
+        <v>55.06993129305873</v>
       </c>
       <c r="C13" t="n">
         <v>45.13615746915134</v>
@@ -33043,16 +33043,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2775029878654591</v>
+        <v>0.276671945558322</v>
       </c>
       <c r="G13" t="n">
-        <v>15.77362326238647</v>
+        <v>15.76613958873939</v>
       </c>
       <c r="H13" t="n">
-        <v>13.1239172939571</v>
+        <v>13.08829223731568</v>
       </c>
       <c r="I13" t="n">
-        <v>101.9010610439537</v>
+        <v>101.6609981663176</v>
       </c>
     </row>
     <row r="14">
@@ -33060,28 +33060,28 @@
         <v>10</v>
       </c>
       <c r="B14" t="n">
-        <v>55.50633713971565</v>
+        <v>55.50633713971564</v>
       </c>
       <c r="C14" t="n">
-        <v>27.28752958890575</v>
+        <v>27.28752958890574</v>
       </c>
       <c r="D14" t="n">
-        <v>27.05877554478112</v>
+        <v>27.05877554478111</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3038912033267205</v>
+        <v>0.3034193516859975</v>
       </c>
       <c r="G14" t="n">
-        <v>8.298529571061293</v>
+        <v>8.29362369049864</v>
       </c>
       <c r="H14" t="n">
-        <v>14.02952315232093</v>
+        <v>14.00938847952295</v>
       </c>
       <c r="I14" t="n">
-        <v>111.024218964772</v>
+        <v>110.8846579209936</v>
       </c>
     </row>
     <row r="15">
@@ -33089,10 +33089,10 @@
         <v>11</v>
       </c>
       <c r="B15" t="n">
-        <v>46.44774768004508</v>
+        <v>46.44774768004507</v>
       </c>
       <c r="C15" t="n">
-        <v>49.75784165707264</v>
+        <v>49.75784165707262</v>
       </c>
       <c r="D15" t="n">
         <v>23.34040589608243</v>
@@ -33101,16 +33101,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1899900729284898</v>
+        <v>0.1893632897136223</v>
       </c>
       <c r="G15" t="n">
-        <v>11.88039213623932</v>
+        <v>11.87305671481209</v>
       </c>
       <c r="H15" t="n">
-        <v>10.35700165232574</v>
+        <v>10.32772387982845</v>
       </c>
       <c r="I15" t="n">
-        <v>109.8816324530524</v>
+        <v>109.6101337502654</v>
       </c>
     </row>
     <row r="16">
@@ -33118,7 +33118,7 @@
         <v>12</v>
       </c>
       <c r="B16" t="n">
-        <v>58.44451936281033</v>
+        <v>58.44451936281031</v>
       </c>
       <c r="C16" t="n">
         <v>32.43176594459942</v>
@@ -33130,16 +33130,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2836031930648638</v>
+        <v>0.283065682833369</v>
       </c>
       <c r="G16" t="n">
-        <v>15.83242119775238</v>
+        <v>15.82659742079561</v>
       </c>
       <c r="H16" t="n">
-        <v>12.67550719814892</v>
+        <v>12.65281185848955</v>
       </c>
       <c r="I16" t="n">
-        <v>133.1664314934766</v>
+        <v>132.9476877413692</v>
       </c>
     </row>
     <row r="17">
@@ -33147,7 +33147,7 @@
         <v>13</v>
       </c>
       <c r="B17" t="n">
-        <v>55.203619489575</v>
+        <v>55.20361948957502</v>
       </c>
       <c r="C17" t="n">
         <v>34.08861206075818</v>
@@ -33159,16 +33159,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3137030510382245</v>
+        <v>0.3132920969530348</v>
       </c>
       <c r="G17" t="n">
-        <v>11.11557973235851</v>
+        <v>11.11141647168178</v>
       </c>
       <c r="H17" t="n">
-        <v>15.5263155417718</v>
+        <v>15.50771479574165</v>
       </c>
       <c r="I17" t="n">
-        <v>109.5459616597046</v>
+        <v>109.4320994752352</v>
       </c>
     </row>
     <row r="18">
@@ -33182,22 +33182,22 @@
         <v>38.09445217073081</v>
       </c>
       <c r="D18" t="n">
-        <v>23.06966674792943</v>
+        <v>23.06966674792944</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2167573920712281</v>
+        <v>0.2161987224685327</v>
       </c>
       <c r="G18" t="n">
-        <v>7.232287654140763</v>
+        <v>7.226710767831994</v>
       </c>
       <c r="H18" t="n">
-        <v>11.22541354515206</v>
+        <v>11.20091487599592</v>
       </c>
       <c r="I18" t="n">
-        <v>86.46689666440103</v>
+        <v>86.30761328322406</v>
       </c>
     </row>
     <row r="19">
@@ -33208,7 +33208,7 @@
         <v>61.18126697103191</v>
       </c>
       <c r="C19" t="n">
-        <v>27.49004388480165</v>
+        <v>27.49004388480166</v>
       </c>
       <c r="D19" t="n">
         <v>25.92213086971326</v>
@@ -33217,16 +33217,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.233773783785564</v>
+        <v>0.233094826630009</v>
       </c>
       <c r="G19" t="n">
-        <v>21.03861503420083</v>
+        <v>21.03112391003505</v>
       </c>
       <c r="H19" t="n">
-        <v>12.54930887638726</v>
+        <v>12.51591073347699</v>
       </c>
       <c r="I19" t="n">
-        <v>96.07248295501948</v>
+        <v>95.85537701041976</v>
       </c>
     </row>
     <row r="20">
@@ -33234,28 +33234,28 @@
         <v>16</v>
       </c>
       <c r="B20" t="n">
-        <v>55.88385591850688</v>
+        <v>55.8838559185069</v>
       </c>
       <c r="C20" t="n">
-        <v>46.80665561560888</v>
+        <v>46.80665561560889</v>
       </c>
       <c r="D20" t="n">
-        <v>22.95430382946721</v>
+        <v>22.95430382946722</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2066371270409398</v>
+        <v>0.2057414189153498</v>
       </c>
       <c r="G20" t="n">
-        <v>18.61112734844824</v>
+        <v>18.60239555875785</v>
       </c>
       <c r="H20" t="n">
-        <v>9.50837110316677</v>
+        <v>9.471797481170073</v>
       </c>
       <c r="I20" t="n">
-        <v>84.07098207412044</v>
+        <v>83.80141719672859</v>
       </c>
     </row>
     <row r="21">
@@ -33263,7 +33263,7 @@
         <v>17</v>
       </c>
       <c r="B21" t="n">
-        <v>66.62894237052559</v>
+        <v>66.62894237052558</v>
       </c>
       <c r="C21" t="n">
         <v>58.23581245080807</v>
@@ -33275,16 +33275,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3225130299875664</v>
+        <v>0.3216195305971796</v>
       </c>
       <c r="G21" t="n">
-        <v>18.8094181513752</v>
+        <v>18.79968256380894</v>
       </c>
       <c r="H21" t="n">
-        <v>15.49029462874525</v>
+        <v>15.45065158264324</v>
       </c>
       <c r="I21" t="n">
-        <v>114.2612663250406</v>
+        <v>114.0046495280069</v>
       </c>
     </row>
     <row r="22">
@@ -33292,10 +33292,10 @@
         <v>18</v>
       </c>
       <c r="B22" t="n">
-        <v>41.61138479519719</v>
+        <v>41.61138479519718</v>
       </c>
       <c r="C22" t="n">
-        <v>47.11890292819858</v>
+        <v>47.11890292819857</v>
       </c>
       <c r="D22" t="n">
         <v>21.14875818454438</v>
@@ -33304,16 +33304,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1646720120896887</v>
+        <v>0.1637748725008241</v>
       </c>
       <c r="G22" t="n">
-        <v>12.37754101940484</v>
+        <v>12.36863467402164</v>
       </c>
       <c r="H22" t="n">
-        <v>9.439438919062439</v>
+        <v>9.394641665471768</v>
       </c>
       <c r="I22" t="n">
-        <v>84.76297342568242</v>
+        <v>84.4248973241473</v>
       </c>
     </row>
     <row r="23">
@@ -33327,22 +33327,22 @@
         <v>53.26224258939776</v>
       </c>
       <c r="D23" t="n">
-        <v>24.0027744067589</v>
+        <v>24.00277440675891</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2690325977451199</v>
+        <v>0.268454634975914</v>
       </c>
       <c r="G23" t="n">
-        <v>17.66434014632489</v>
+        <v>17.65853109925913</v>
       </c>
       <c r="H23" t="n">
-        <v>11.69614800725698</v>
+        <v>11.67261101910171</v>
       </c>
       <c r="I23" t="n">
-        <v>114.9449705475234</v>
+        <v>114.7400283860419</v>
       </c>
     </row>
   </sheetData>
@@ -64353,7 +64353,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>46.8968874403418</v>
+        <v>46.89688744034181</v>
       </c>
       <c r="C4" t="n">
         <v>34.31755785393648</v>
@@ -64365,16 +64365,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2381967672060051</v>
+        <v>0.2375463837533017</v>
       </c>
       <c r="G4" t="n">
-        <v>8.035117316032286</v>
+        <v>8.029293160392296</v>
       </c>
       <c r="H4" t="n">
-        <v>10.80129598254081</v>
+        <v>10.77227073461489</v>
       </c>
       <c r="I4" t="n">
-        <v>79.75602368212746</v>
+        <v>79.57629708211348</v>
       </c>
     </row>
     <row r="5">
@@ -64382,28 +64382,28 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>57.1414801959084</v>
+        <v>57.14148019590839</v>
       </c>
       <c r="C5" t="n">
-        <v>50.03975555931072</v>
+        <v>50.03975555931069</v>
       </c>
       <c r="D5" t="n">
-        <v>39.67798162418904</v>
+        <v>39.67798162418903</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4243512870661316</v>
+        <v>0.4232780166151743</v>
       </c>
       <c r="G5" t="n">
-        <v>13.63220567198875</v>
+        <v>13.62083796144725</v>
       </c>
       <c r="H5" t="n">
-        <v>18.68190791166262</v>
+        <v>18.63443778358906</v>
       </c>
       <c r="I5" t="n">
-        <v>163.1540708267666</v>
+        <v>162.7674061823236</v>
       </c>
     </row>
     <row r="6">
@@ -64414,25 +64414,25 @@
         <v>60.66573663991131</v>
       </c>
       <c r="C6" t="n">
-        <v>37.81260927512211</v>
+        <v>37.81260927512209</v>
       </c>
       <c r="D6" t="n">
-        <v>30.5084125365912</v>
+        <v>30.50841253659119</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3260710583991684</v>
+        <v>0.3253490177657788</v>
       </c>
       <c r="G6" t="n">
-        <v>21.60223690456749</v>
+        <v>21.59486683839488</v>
       </c>
       <c r="H6" t="n">
-        <v>14.83196280177431</v>
+        <v>14.79759321787493</v>
       </c>
       <c r="I6" t="n">
-        <v>128.9200890631624</v>
+        <v>128.642107439241</v>
       </c>
     </row>
     <row r="7">
@@ -64440,28 +64440,28 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>48.11700516564426</v>
+        <v>48.11700516564425</v>
       </c>
       <c r="C7" t="n">
         <v>34.86351117114575</v>
       </c>
       <c r="D7" t="n">
-        <v>22.97584645293637</v>
+        <v>22.97584645293636</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2843830862684409</v>
+        <v>0.2839854986987753</v>
       </c>
       <c r="G7" t="n">
-        <v>10.46877172950261</v>
+        <v>10.46519109870898</v>
       </c>
       <c r="H7" t="n">
-        <v>11.09179117172365</v>
+        <v>11.0768030076069</v>
       </c>
       <c r="I7" t="n">
-        <v>109.3003217634599</v>
+        <v>109.167745107688</v>
       </c>
     </row>
     <row r="8">
@@ -64472,7 +64472,7 @@
         <v>42.69198303380948</v>
       </c>
       <c r="C8" t="n">
-        <v>38.78841935909846</v>
+        <v>38.78841935909845</v>
       </c>
       <c r="D8" t="n">
         <v>18.77376226326885</v>
@@ -64481,16 +64481,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2003771671589207</v>
+        <v>0.1993083118412712</v>
       </c>
       <c r="G8" t="n">
-        <v>14.86052106702502</v>
+        <v>14.85023256961915</v>
       </c>
       <c r="H8" t="n">
-        <v>8.662597029505822</v>
+        <v>8.614016556511352</v>
       </c>
       <c r="I8" t="n">
-        <v>71.33904208193779</v>
+        <v>70.99546227882172</v>
       </c>
     </row>
     <row r="9">
@@ -64510,16 +64510,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3173179316447551</v>
+        <v>0.3161257998970867</v>
       </c>
       <c r="G9" t="n">
-        <v>13.55931295791896</v>
+        <v>13.54876553441311</v>
       </c>
       <c r="H9" t="n">
-        <v>11.87662301733319</v>
+        <v>11.83140954606939</v>
       </c>
       <c r="I9" t="n">
-        <v>103.736740696228</v>
+        <v>103.3807037408756</v>
       </c>
     </row>
     <row r="10">
@@ -64530,7 +64530,7 @@
         <v>42.33394255412094</v>
       </c>
       <c r="C10" t="n">
-        <v>28.94794633755075</v>
+        <v>28.94794633755076</v>
       </c>
       <c r="D10" t="n">
         <v>22.65748014722023</v>
@@ -64539,16 +64539,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2408361030489645</v>
+        <v>0.2400170482122225</v>
       </c>
       <c r="G10" t="n">
-        <v>12.12475985644884</v>
+        <v>12.11657013778467</v>
       </c>
       <c r="H10" t="n">
-        <v>10.59959797198482</v>
+        <v>10.56118807429876</v>
       </c>
       <c r="I10" t="n">
-        <v>84.55588058114665</v>
+        <v>84.28939014172322</v>
       </c>
     </row>
     <row r="11">
@@ -64556,28 +64556,28 @@
         <v>7</v>
       </c>
       <c r="B11" t="n">
-        <v>61.53325344217922</v>
+        <v>61.53325344217923</v>
       </c>
       <c r="C11" t="n">
-        <v>61.14664099036</v>
+        <v>61.14664099036003</v>
       </c>
       <c r="D11" t="n">
-        <v>46.06736191633664</v>
+        <v>46.06736191633666</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4896709007023874</v>
+        <v>0.4892276735399027</v>
       </c>
       <c r="G11" t="n">
-        <v>18.49539011253519</v>
+        <v>18.49089280229623</v>
       </c>
       <c r="H11" t="n">
-        <v>22.43024643364046</v>
+        <v>22.41083664930552</v>
       </c>
       <c r="I11" t="n">
-        <v>211.6945845234062</v>
+        <v>211.5214043053612</v>
       </c>
     </row>
     <row r="12">
@@ -64588,25 +64588,25 @@
         <v>43.31831594868412</v>
       </c>
       <c r="C12" t="n">
-        <v>30.4248280973764</v>
+        <v>30.42482809737641</v>
       </c>
       <c r="D12" t="n">
-        <v>20.30107808098007</v>
+        <v>20.30107808098008</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2540555414018153</v>
+        <v>0.2531060648683703</v>
       </c>
       <c r="G12" t="n">
-        <v>12.64790138307767</v>
+        <v>12.63939195586257</v>
       </c>
       <c r="H12" t="n">
-        <v>10.01661588188314</v>
+        <v>9.977444348105742</v>
       </c>
       <c r="I12" t="n">
-        <v>84.25262658410429</v>
+        <v>83.9623454178633</v>
       </c>
     </row>
     <row r="13">
@@ -64614,7 +64614,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="n">
-        <v>55.06993129305874</v>
+        <v>55.06993129305873</v>
       </c>
       <c r="C13" t="n">
         <v>45.13615746915134</v>
@@ -64626,16 +64626,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3194508359842278</v>
+        <v>0.3186197936770906</v>
       </c>
       <c r="G13" t="n">
-        <v>16.64539353594828</v>
+        <v>16.63790986230119</v>
       </c>
       <c r="H13" t="n">
-        <v>13.66638899467996</v>
+        <v>13.63076393803854</v>
       </c>
       <c r="I13" t="n">
-        <v>102.5230152272344</v>
+        <v>102.2829523495982</v>
       </c>
     </row>
     <row r="14">
@@ -64643,28 +64643,28 @@
         <v>10</v>
       </c>
       <c r="B14" t="n">
-        <v>55.50633713971565</v>
+        <v>55.50633713971564</v>
       </c>
       <c r="C14" t="n">
-        <v>27.28752958890575</v>
+        <v>27.28752958890574</v>
       </c>
       <c r="D14" t="n">
-        <v>27.05877554478112</v>
+        <v>27.05877554478111</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3512660007488358</v>
+        <v>0.3507941491081128</v>
       </c>
       <c r="G14" t="n">
-        <v>9.197842607819998</v>
+        <v>9.192936727257345</v>
       </c>
       <c r="H14" t="n">
-        <v>14.62662500633865</v>
+        <v>14.60649033354066</v>
       </c>
       <c r="I14" t="n">
-        <v>112.3339600238089</v>
+        <v>112.1943989800305</v>
       </c>
     </row>
     <row r="15">
@@ -64672,10 +64672,10 @@
         <v>11</v>
       </c>
       <c r="B15" t="n">
-        <v>46.44774768004508</v>
+        <v>46.44774768004507</v>
       </c>
       <c r="C15" t="n">
-        <v>49.75784165707264</v>
+        <v>49.75784165707262</v>
       </c>
       <c r="D15" t="n">
         <v>23.34040589608243</v>
@@ -64684,16 +64684,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2347770977578764</v>
+        <v>0.2341503145430089</v>
       </c>
       <c r="G15" t="n">
-        <v>12.78461812713461</v>
+        <v>12.77728270570737</v>
       </c>
       <c r="H15" t="n">
-        <v>10.9308019709698</v>
+        <v>10.90152419847252</v>
       </c>
       <c r="I15" t="n">
-        <v>111.0410513565941</v>
+        <v>110.7695526538071</v>
       </c>
     </row>
     <row r="16">
@@ -64701,7 +64701,7 @@
         <v>12</v>
       </c>
       <c r="B16" t="n">
-        <v>58.44451936281033</v>
+        <v>58.44451936281031</v>
       </c>
       <c r="C16" t="n">
         <v>32.43176594459942</v>
@@ -64713,16 +64713,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3277930120023512</v>
+        <v>0.3272555017708564</v>
       </c>
       <c r="G16" t="n">
-        <v>16.65832061093407</v>
+        <v>16.6524968339773</v>
       </c>
       <c r="H16" t="n">
-        <v>13.26077075714466</v>
+        <v>13.23807541748528</v>
       </c>
       <c r="I16" t="n">
-        <v>133.9289651388426</v>
+        <v>133.7102213867353</v>
       </c>
     </row>
     <row r="17">
@@ -64730,7 +64730,7 @@
         <v>13</v>
       </c>
       <c r="B17" t="n">
-        <v>55.203619489575</v>
+        <v>55.20361948957502</v>
       </c>
       <c r="C17" t="n">
         <v>34.08861206075818</v>
@@ -64742,16 +64742,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3569350449678663</v>
+        <v>0.3565240908826766</v>
       </c>
       <c r="G17" t="n">
-        <v>12.02929983209552</v>
+        <v>12.02513657141879</v>
       </c>
       <c r="H17" t="n">
-        <v>16.07802069131979</v>
+        <v>16.05941994528963</v>
       </c>
       <c r="I17" t="n">
-        <v>110.3154381266726</v>
+        <v>110.2015759422032</v>
       </c>
     </row>
     <row r="18">
@@ -64765,22 +64765,22 @@
         <v>38.09445217073081</v>
       </c>
       <c r="D18" t="n">
-        <v>23.06966674792943</v>
+        <v>23.06966674792944</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2620348599335672</v>
+        <v>0.2614761903308718</v>
       </c>
       <c r="G18" t="n">
-        <v>8.190610790569032</v>
+        <v>8.185033904260262</v>
       </c>
       <c r="H18" t="n">
-        <v>11.78104699210347</v>
+        <v>11.75654832294733</v>
       </c>
       <c r="I18" t="n">
-        <v>87.55707459646054</v>
+        <v>87.39779121528358</v>
       </c>
     </row>
     <row r="19">
@@ -64791,7 +64791,7 @@
         <v>61.18126697103191</v>
       </c>
       <c r="C19" t="n">
-        <v>27.49004388480165</v>
+        <v>27.49004388480166</v>
       </c>
       <c r="D19" t="n">
         <v>25.92213086971326</v>
@@ -64800,16 +64800,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2761524059846809</v>
+        <v>0.2754734488291259</v>
       </c>
       <c r="G19" t="n">
-        <v>21.83011123906194</v>
+        <v>21.82262011489617</v>
       </c>
       <c r="H19" t="n">
-        <v>13.16379134985509</v>
+        <v>13.13039320694482</v>
       </c>
       <c r="I19" t="n">
-        <v>96.73019047772115</v>
+        <v>96.51308453312144</v>
       </c>
     </row>
     <row r="20">
@@ -64817,28 +64817,28 @@
         <v>16</v>
       </c>
       <c r="B20" t="n">
-        <v>55.88385591850688</v>
+        <v>55.8838559185069</v>
       </c>
       <c r="C20" t="n">
-        <v>46.80665561560888</v>
+        <v>46.80665561560889</v>
       </c>
       <c r="D20" t="n">
-        <v>22.95430382946721</v>
+        <v>22.95430382946722</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2552286351640071</v>
+        <v>0.2543329270384171</v>
       </c>
       <c r="G20" t="n">
-        <v>19.57472446204419</v>
+        <v>19.56599267235381</v>
       </c>
       <c r="H20" t="n">
-        <v>10.09566446788202</v>
+        <v>10.05909084588533</v>
       </c>
       <c r="I20" t="n">
-        <v>84.6983520598737</v>
+        <v>84.42878718248188</v>
       </c>
     </row>
     <row r="21">
@@ -64846,7 +64846,7 @@
         <v>17</v>
       </c>
       <c r="B21" t="n">
-        <v>66.62894237052559</v>
+        <v>66.62894237052558</v>
       </c>
       <c r="C21" t="n">
         <v>58.23581245080807</v>
@@ -64858,16 +64858,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3703466147029651</v>
+        <v>0.3694531153125784</v>
       </c>
       <c r="G21" t="n">
-        <v>19.66198423183295</v>
+        <v>19.65224864426668</v>
       </c>
       <c r="H21" t="n">
-        <v>16.00860222919501</v>
+        <v>15.968959183093</v>
       </c>
       <c r="I21" t="n">
-        <v>115.4699881729737</v>
+        <v>115.2133713759401</v>
       </c>
     </row>
     <row r="22">
@@ -64875,10 +64875,10 @@
         <v>18</v>
       </c>
       <c r="B22" t="n">
-        <v>41.61138479519719</v>
+        <v>41.61138479519718</v>
       </c>
       <c r="C22" t="n">
-        <v>47.11890292819858</v>
+        <v>47.11890292819857</v>
       </c>
       <c r="D22" t="n">
         <v>21.14875818454438</v>
@@ -64887,16 +64887,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.206559203920269</v>
+        <v>0.2056620643314044</v>
       </c>
       <c r="G22" t="n">
-        <v>13.25770733202397</v>
+        <v>13.24880098664077</v>
       </c>
       <c r="H22" t="n">
-        <v>9.979112225519986</v>
+        <v>9.934314971929313</v>
       </c>
       <c r="I22" t="n">
-        <v>85.91162665513509</v>
+        <v>85.57355055359999</v>
       </c>
     </row>
     <row r="23">
@@ -64910,22 +64910,22 @@
         <v>53.26224258939776</v>
       </c>
       <c r="D23" t="n">
-        <v>24.0027744067589</v>
+        <v>24.00277440675891</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3095233845225067</v>
+        <v>0.3089454217533009</v>
       </c>
       <c r="G23" t="n">
-        <v>18.51638378895367</v>
+        <v>18.51057474188791</v>
       </c>
       <c r="H23" t="n">
-        <v>12.24874704449703</v>
+        <v>12.22521005634176</v>
       </c>
       <c r="I23" t="n">
-        <v>115.3668722342876</v>
+        <v>115.1619300728061</v>
       </c>
     </row>
   </sheetData>

--- a/dmsan/newgen/scores/Senegal/sys_uncertainties.xlsx
+++ b/dmsan/newgen/scores/Senegal/sys_uncertainties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="sysA-param" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="sysA-results" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="sysB-param" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="sysB-results" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sysA-param" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sysA-results" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sysB-param" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sysB-results" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -32770,28 +32770,28 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>46.89688744034181</v>
+        <v>46.89688744034183</v>
       </c>
       <c r="C4" t="n">
-        <v>34.31755785393648</v>
+        <v>34.31755785393652</v>
       </c>
       <c r="D4" t="n">
-        <v>19.69994974512099</v>
+        <v>19.69994974512102</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1894733990537578</v>
+        <v>0.1894733990537579</v>
       </c>
       <c r="G4" t="n">
-        <v>7.198548727723725</v>
+        <v>7.198548727723724</v>
       </c>
       <c r="H4" t="n">
-        <v>10.16195510768069</v>
+        <v>10.1619551076807</v>
       </c>
       <c r="I4" t="n">
-        <v>78.96857389873105</v>
+        <v>78.96857389873109</v>
       </c>
     </row>
     <row r="5">
@@ -32799,7 +32799,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>57.14148019590839</v>
+        <v>57.1414801959084</v>
       </c>
       <c r="C5" t="n">
         <v>50.03975555931069</v>
@@ -32828,25 +32828,25 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>60.66573663991131</v>
+        <v>60.66573663991126</v>
       </c>
       <c r="C6" t="n">
-        <v>37.81260927512209</v>
+        <v>37.81260927512206</v>
       </c>
       <c r="D6" t="n">
-        <v>30.50841253659119</v>
+        <v>30.50841253659116</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2777011375046923</v>
+        <v>0.2777011375046922</v>
       </c>
       <c r="G6" t="n">
         <v>20.79302532263783</v>
       </c>
       <c r="H6" t="n">
-        <v>14.22210556702653</v>
+        <v>14.22210556702652</v>
       </c>
       <c r="I6" t="n">
         <v>127.3220922751598</v>
@@ -32857,13 +32857,13 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>48.11700516564425</v>
+        <v>48.11700516564427</v>
       </c>
       <c r="C7" t="n">
         <v>34.86351117114575</v>
       </c>
       <c r="D7" t="n">
-        <v>22.97584645293636</v>
+        <v>22.97584645293637</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -32878,7 +32878,7 @@
         <v>10.4946761699887</v>
       </c>
       <c r="I7" t="n">
-        <v>108.2572355491173</v>
+        <v>108.2572355491174</v>
       </c>
     </row>
     <row r="8">
@@ -32889,25 +32889,25 @@
         <v>42.69198303380948</v>
       </c>
       <c r="C8" t="n">
-        <v>38.78841935909845</v>
+        <v>38.78841935909844</v>
       </c>
       <c r="D8" t="n">
-        <v>18.77376226326885</v>
+        <v>18.77376226326886</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1519872855299866</v>
+        <v>0.1519872855299867</v>
       </c>
       <c r="G8" t="n">
         <v>13.9476058443606</v>
       </c>
       <c r="H8" t="n">
-        <v>7.991027761082347</v>
+        <v>7.991027761082353</v>
       </c>
       <c r="I8" t="n">
-        <v>70.64450112671787</v>
+        <v>70.6445011267179</v>
       </c>
     </row>
     <row r="9">
@@ -32915,28 +32915,28 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>48.33894633671801</v>
+        <v>48.33894633671799</v>
       </c>
       <c r="C9" t="n">
-        <v>47.48406203951192</v>
+        <v>47.48406203951186</v>
       </c>
       <c r="D9" t="n">
-        <v>28.25174393570813</v>
+        <v>28.25174393570806</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2734223977960186</v>
+        <v>0.2734223977960178</v>
       </c>
       <c r="G9" t="n">
         <v>12.65583184612468</v>
       </c>
       <c r="H9" t="n">
-        <v>11.29784045833789</v>
+        <v>11.29784045833786</v>
       </c>
       <c r="I9" t="n">
-        <v>102.7068050883542</v>
+        <v>102.706805088354</v>
       </c>
     </row>
     <row r="10">
@@ -32947,7 +32947,7 @@
         <v>42.33394255412094</v>
       </c>
       <c r="C10" t="n">
-        <v>28.94794633755076</v>
+        <v>28.94794633755077</v>
       </c>
       <c r="D10" t="n">
         <v>22.65748014722023</v>
@@ -32973,13 +32973,13 @@
         <v>7</v>
       </c>
       <c r="B11" t="n">
-        <v>61.53325344217923</v>
+        <v>61.53325344217924</v>
       </c>
       <c r="C11" t="n">
-        <v>61.14664099036003</v>
+        <v>61.14664099036</v>
       </c>
       <c r="D11" t="n">
-        <v>46.06736191633666</v>
+        <v>46.06736191633667</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -33002,28 +33002,28 @@
         <v>8</v>
       </c>
       <c r="B12" t="n">
-        <v>43.31831594868412</v>
+        <v>43.31831594868413</v>
       </c>
       <c r="C12" t="n">
-        <v>30.42482809737641</v>
+        <v>30.42482809737639</v>
       </c>
       <c r="D12" t="n">
-        <v>20.30107808098008</v>
+        <v>20.30107808098006</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2077873303970509</v>
+        <v>0.2077873303970505</v>
       </c>
       <c r="G12" t="n">
         <v>11.83931379973844</v>
       </c>
       <c r="H12" t="n">
-        <v>9.381647485448701</v>
+        <v>9.381647485448683</v>
       </c>
       <c r="I12" t="n">
-        <v>83.24438046911582</v>
+        <v>83.24438046911571</v>
       </c>
     </row>
     <row r="13">
@@ -33031,28 +33031,28 @@
         <v>9</v>
       </c>
       <c r="B13" t="n">
-        <v>55.06993129305873</v>
+        <v>55.06993129305875</v>
       </c>
       <c r="C13" t="n">
-        <v>45.13615746915134</v>
+        <v>45.13615746915137</v>
       </c>
       <c r="D13" t="n">
-        <v>28.70251103466377</v>
+        <v>28.70251103466381</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.276671945558322</v>
+        <v>0.2766719455583223</v>
       </c>
       <c r="G13" t="n">
         <v>15.76613958873939</v>
       </c>
       <c r="H13" t="n">
-        <v>13.08829223731568</v>
+        <v>13.0882922373157</v>
       </c>
       <c r="I13" t="n">
-        <v>101.6609981663176</v>
+        <v>101.6609981663177</v>
       </c>
     </row>
     <row r="14">
@@ -33060,28 +33060,28 @@
         <v>10</v>
       </c>
       <c r="B14" t="n">
-        <v>55.50633713971564</v>
+        <v>55.50633713971566</v>
       </c>
       <c r="C14" t="n">
-        <v>27.28752958890574</v>
+        <v>27.2875295889058</v>
       </c>
       <c r="D14" t="n">
-        <v>27.05877554478111</v>
+        <v>27.05877554478116</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3034193516859975</v>
+        <v>0.3034193516859983</v>
       </c>
       <c r="G14" t="n">
-        <v>8.29362369049864</v>
+        <v>8.293623690498649</v>
       </c>
       <c r="H14" t="n">
-        <v>14.00938847952295</v>
+        <v>14.00938847952298</v>
       </c>
       <c r="I14" t="n">
-        <v>110.8846579209936</v>
+        <v>110.8846579209939</v>
       </c>
     </row>
     <row r="15">
@@ -33089,13 +33089,13 @@
         <v>11</v>
       </c>
       <c r="B15" t="n">
-        <v>46.44774768004507</v>
+        <v>46.44774768004508</v>
       </c>
       <c r="C15" t="n">
         <v>49.75784165707262</v>
       </c>
       <c r="D15" t="n">
-        <v>23.34040589608243</v>
+        <v>23.34040589608242</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -33118,28 +33118,28 @@
         <v>12</v>
       </c>
       <c r="B16" t="n">
-        <v>58.44451936281031</v>
+        <v>58.44451936281037</v>
       </c>
       <c r="C16" t="n">
-        <v>32.43176594459942</v>
+        <v>32.43176594459948</v>
       </c>
       <c r="D16" t="n">
-        <v>29.22470002003374</v>
+        <v>29.22470002003383</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.283065682833369</v>
+        <v>0.2830656828333697</v>
       </c>
       <c r="G16" t="n">
         <v>15.82659742079561</v>
       </c>
       <c r="H16" t="n">
-        <v>12.65281185848955</v>
+        <v>12.65281185848958</v>
       </c>
       <c r="I16" t="n">
-        <v>132.9476877413692</v>
+        <v>132.9476877413696</v>
       </c>
     </row>
     <row r="17">
@@ -33147,10 +33147,10 @@
         <v>13</v>
       </c>
       <c r="B17" t="n">
-        <v>55.20361948957502</v>
+        <v>55.20361948957503</v>
       </c>
       <c r="C17" t="n">
-        <v>34.08861206075818</v>
+        <v>34.08861206075819</v>
       </c>
       <c r="D17" t="n">
         <v>29.12631850483073</v>
@@ -33176,28 +33176,28 @@
         <v>14</v>
       </c>
       <c r="B18" t="n">
-        <v>63.43348982112621</v>
+        <v>63.43348982112628</v>
       </c>
       <c r="C18" t="n">
-        <v>38.09445217073081</v>
+        <v>38.09445217073088</v>
       </c>
       <c r="D18" t="n">
-        <v>23.06966674792944</v>
+        <v>23.06966674792951</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2161987224685327</v>
+        <v>0.2161987224685336</v>
       </c>
       <c r="G18" t="n">
-        <v>7.226710767831994</v>
+        <v>7.226710767831999</v>
       </c>
       <c r="H18" t="n">
-        <v>11.20091487599592</v>
+        <v>11.20091487599596</v>
       </c>
       <c r="I18" t="n">
-        <v>86.30761328322406</v>
+        <v>86.30761328322433</v>
       </c>
     </row>
     <row r="19">
@@ -33205,28 +33205,28 @@
         <v>15</v>
       </c>
       <c r="B19" t="n">
-        <v>61.18126697103191</v>
+        <v>61.18126697103189</v>
       </c>
       <c r="C19" t="n">
-        <v>27.49004388480166</v>
+        <v>27.49004388480157</v>
       </c>
       <c r="D19" t="n">
-        <v>25.92213086971326</v>
+        <v>25.92213086971319</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.233094826630009</v>
+        <v>0.2330948266300082</v>
       </c>
       <c r="G19" t="n">
         <v>21.03112391003505</v>
       </c>
       <c r="H19" t="n">
-        <v>12.51591073347699</v>
+        <v>12.51591073347694</v>
       </c>
       <c r="I19" t="n">
-        <v>95.85537701041976</v>
+        <v>95.8553770104195</v>
       </c>
     </row>
     <row r="20">
@@ -33234,28 +33234,28 @@
         <v>16</v>
       </c>
       <c r="B20" t="n">
-        <v>55.8838559185069</v>
+        <v>55.88385591850691</v>
       </c>
       <c r="C20" t="n">
-        <v>46.80665561560889</v>
+        <v>46.8066556156089</v>
       </c>
       <c r="D20" t="n">
-        <v>22.95430382946722</v>
+        <v>22.95430382946724</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2057414189153498</v>
+        <v>0.2057414189153501</v>
       </c>
       <c r="G20" t="n">
-        <v>18.60239555875785</v>
+        <v>18.60239555875784</v>
       </c>
       <c r="H20" t="n">
-        <v>9.471797481170073</v>
+        <v>9.471797481170091</v>
       </c>
       <c r="I20" t="n">
-        <v>83.80141719672859</v>
+        <v>83.80141719672875</v>
       </c>
     </row>
     <row r="21">
@@ -33263,13 +33263,13 @@
         <v>17</v>
       </c>
       <c r="B21" t="n">
-        <v>66.62894237052558</v>
+        <v>66.62894237052561</v>
       </c>
       <c r="C21" t="n">
-        <v>58.23581245080807</v>
+        <v>58.23581245080806</v>
       </c>
       <c r="D21" t="n">
-        <v>34.55906854956822</v>
+        <v>34.55906854956823</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -33295,10 +33295,10 @@
         <v>41.61138479519718</v>
       </c>
       <c r="C22" t="n">
-        <v>47.11890292819857</v>
+        <v>47.11890292819859</v>
       </c>
       <c r="D22" t="n">
-        <v>21.14875818454438</v>
+        <v>21.14875818454439</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -33324,10 +33324,10 @@
         <v>50.21194862524148</v>
       </c>
       <c r="C23" t="n">
-        <v>53.26224258939776</v>
+        <v>53.26224258939774</v>
       </c>
       <c r="D23" t="n">
-        <v>24.00277440675891</v>
+        <v>24.00277440675889</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -64353,28 +64353,28 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>46.89688744034181</v>
+        <v>46.89688744034183</v>
       </c>
       <c r="C4" t="n">
-        <v>34.31755785393648</v>
+        <v>34.31755785393652</v>
       </c>
       <c r="D4" t="n">
-        <v>19.69994974512099</v>
+        <v>19.69994974512102</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2375463837533017</v>
+        <v>0.2375463837533019</v>
       </c>
       <c r="G4" t="n">
-        <v>8.029293160392296</v>
+        <v>8.029293160392294</v>
       </c>
       <c r="H4" t="n">
-        <v>10.77227073461489</v>
+        <v>10.7722707346149</v>
       </c>
       <c r="I4" t="n">
-        <v>79.57629708211348</v>
+        <v>79.57629708211354</v>
       </c>
     </row>
     <row r="5">
@@ -64382,7 +64382,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>57.14148019590839</v>
+        <v>57.1414801959084</v>
       </c>
       <c r="C5" t="n">
         <v>50.03975555931069</v>
@@ -64411,25 +64411,25 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>60.66573663991131</v>
+        <v>60.66573663991126</v>
       </c>
       <c r="C6" t="n">
-        <v>37.81260927512209</v>
+        <v>37.81260927512206</v>
       </c>
       <c r="D6" t="n">
-        <v>30.50841253659119</v>
+        <v>30.50841253659116</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3253490177657788</v>
+        <v>0.3253490177657787</v>
       </c>
       <c r="G6" t="n">
-        <v>21.59486683839488</v>
+        <v>21.59486683839489</v>
       </c>
       <c r="H6" t="n">
-        <v>14.79759321787493</v>
+        <v>14.79759321787492</v>
       </c>
       <c r="I6" t="n">
         <v>128.642107439241</v>
@@ -64440,19 +64440,19 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>48.11700516564425</v>
+        <v>48.11700516564427</v>
       </c>
       <c r="C7" t="n">
         <v>34.86351117114575</v>
       </c>
       <c r="D7" t="n">
-        <v>22.97584645293636</v>
+        <v>22.97584645293637</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2839854986987753</v>
+        <v>0.2839854986987754</v>
       </c>
       <c r="G7" t="n">
         <v>10.46519109870898</v>
@@ -64472,25 +64472,25 @@
         <v>42.69198303380948</v>
       </c>
       <c r="C8" t="n">
-        <v>38.78841935909845</v>
+        <v>38.78841935909844</v>
       </c>
       <c r="D8" t="n">
-        <v>18.77376226326885</v>
+        <v>18.77376226326886</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1993083118412712</v>
+        <v>0.1993083118412713</v>
       </c>
       <c r="G8" t="n">
         <v>14.85023256961915</v>
       </c>
       <c r="H8" t="n">
-        <v>8.614016556511352</v>
+        <v>8.614016556511357</v>
       </c>
       <c r="I8" t="n">
-        <v>70.99546227882172</v>
+        <v>70.99546227882175</v>
       </c>
     </row>
     <row r="9">
@@ -64498,28 +64498,28 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>48.33894633671801</v>
+        <v>48.33894633671799</v>
       </c>
       <c r="C9" t="n">
-        <v>47.48406203951192</v>
+        <v>47.48406203951186</v>
       </c>
       <c r="D9" t="n">
-        <v>28.25174393570813</v>
+        <v>28.25174393570806</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3161257998970867</v>
+        <v>0.3161257998970861</v>
       </c>
       <c r="G9" t="n">
         <v>13.54876553441311</v>
       </c>
       <c r="H9" t="n">
-        <v>11.83140954606939</v>
+        <v>11.83140954606936</v>
       </c>
       <c r="I9" t="n">
-        <v>103.3807037408756</v>
+        <v>103.3807037408753</v>
       </c>
     </row>
     <row r="10">
@@ -64530,7 +64530,7 @@
         <v>42.33394255412094</v>
       </c>
       <c r="C10" t="n">
-        <v>28.94794633755076</v>
+        <v>28.94794633755077</v>
       </c>
       <c r="D10" t="n">
         <v>22.65748014722023</v>
@@ -64556,13 +64556,13 @@
         <v>7</v>
       </c>
       <c r="B11" t="n">
-        <v>61.53325344217923</v>
+        <v>61.53325344217924</v>
       </c>
       <c r="C11" t="n">
-        <v>61.14664099036003</v>
+        <v>61.14664099036</v>
       </c>
       <c r="D11" t="n">
-        <v>46.06736191633666</v>
+        <v>46.06736191633667</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -64577,7 +64577,7 @@
         <v>22.41083664930552</v>
       </c>
       <c r="I11" t="n">
-        <v>211.5214043053612</v>
+        <v>211.5214043053611</v>
       </c>
     </row>
     <row r="12">
@@ -64585,28 +64585,28 @@
         <v>8</v>
       </c>
       <c r="B12" t="n">
-        <v>43.31831594868412</v>
+        <v>43.31831594868413</v>
       </c>
       <c r="C12" t="n">
-        <v>30.42482809737641</v>
+        <v>30.42482809737639</v>
       </c>
       <c r="D12" t="n">
-        <v>20.30107808098008</v>
+        <v>20.30107808098006</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2531060648683703</v>
+        <v>0.2531060648683699</v>
       </c>
       <c r="G12" t="n">
         <v>12.63939195586257</v>
       </c>
       <c r="H12" t="n">
-        <v>9.977444348105742</v>
+        <v>9.977444348105724</v>
       </c>
       <c r="I12" t="n">
-        <v>83.9623454178633</v>
+        <v>83.96234541786318</v>
       </c>
     </row>
     <row r="13">
@@ -64614,28 +64614,28 @@
         <v>9</v>
       </c>
       <c r="B13" t="n">
-        <v>55.06993129305873</v>
+        <v>55.06993129305875</v>
       </c>
       <c r="C13" t="n">
-        <v>45.13615746915134</v>
+        <v>45.13615746915137</v>
       </c>
       <c r="D13" t="n">
-        <v>28.70251103466377</v>
+        <v>28.70251103466381</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3186197936770906</v>
+        <v>0.318619793677091</v>
       </c>
       <c r="G13" t="n">
         <v>16.63790986230119</v>
       </c>
       <c r="H13" t="n">
-        <v>13.63076393803854</v>
+        <v>13.63076393803855</v>
       </c>
       <c r="I13" t="n">
-        <v>102.2829523495982</v>
+        <v>102.2829523495983</v>
       </c>
     </row>
     <row r="14">
@@ -64643,28 +64643,28 @@
         <v>10</v>
       </c>
       <c r="B14" t="n">
-        <v>55.50633713971564</v>
+        <v>55.50633713971566</v>
       </c>
       <c r="C14" t="n">
-        <v>27.28752958890574</v>
+        <v>27.2875295889058</v>
       </c>
       <c r="D14" t="n">
-        <v>27.05877554478111</v>
+        <v>27.05877554478116</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3507941491081128</v>
+        <v>0.3507941491081137</v>
       </c>
       <c r="G14" t="n">
-        <v>9.192936727257345</v>
+        <v>9.192936727257354</v>
       </c>
       <c r="H14" t="n">
-        <v>14.60649033354066</v>
+        <v>14.6064903335407</v>
       </c>
       <c r="I14" t="n">
-        <v>112.1943989800305</v>
+        <v>112.1943989800308</v>
       </c>
     </row>
     <row r="15">
@@ -64672,13 +64672,13 @@
         <v>11</v>
       </c>
       <c r="B15" t="n">
-        <v>46.44774768004507</v>
+        <v>46.44774768004508</v>
       </c>
       <c r="C15" t="n">
         <v>49.75784165707262</v>
       </c>
       <c r="D15" t="n">
-        <v>23.34040589608243</v>
+        <v>23.34040589608242</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -64701,28 +64701,28 @@
         <v>12</v>
       </c>
       <c r="B16" t="n">
-        <v>58.44451936281031</v>
+        <v>58.44451936281037</v>
       </c>
       <c r="C16" t="n">
-        <v>32.43176594459942</v>
+        <v>32.43176594459948</v>
       </c>
       <c r="D16" t="n">
-        <v>29.22470002003374</v>
+        <v>29.22470002003383</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3272555017708564</v>
+        <v>0.3272555017708571</v>
       </c>
       <c r="G16" t="n">
         <v>16.6524968339773</v>
       </c>
       <c r="H16" t="n">
-        <v>13.23807541748528</v>
+        <v>13.23807541748532</v>
       </c>
       <c r="I16" t="n">
-        <v>133.7102213867353</v>
+        <v>133.7102213867356</v>
       </c>
     </row>
     <row r="17">
@@ -64730,10 +64730,10 @@
         <v>13</v>
       </c>
       <c r="B17" t="n">
-        <v>55.20361948957502</v>
+        <v>55.20361948957503</v>
       </c>
       <c r="C17" t="n">
-        <v>34.08861206075818</v>
+        <v>34.08861206075819</v>
       </c>
       <c r="D17" t="n">
         <v>29.12631850483073</v>
@@ -64751,7 +64751,7 @@
         <v>16.05941994528963</v>
       </c>
       <c r="I17" t="n">
-        <v>110.2015759422032</v>
+        <v>110.2015759422031</v>
       </c>
     </row>
     <row r="18">
@@ -64759,28 +64759,28 @@
         <v>14</v>
       </c>
       <c r="B18" t="n">
-        <v>63.43348982112621</v>
+        <v>63.43348982112628</v>
       </c>
       <c r="C18" t="n">
-        <v>38.09445217073081</v>
+        <v>38.09445217073088</v>
       </c>
       <c r="D18" t="n">
-        <v>23.06966674792944</v>
+        <v>23.06966674792951</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2614761903308718</v>
+        <v>0.2614761903308727</v>
       </c>
       <c r="G18" t="n">
-        <v>8.185033904260262</v>
+        <v>8.185033904260266</v>
       </c>
       <c r="H18" t="n">
-        <v>11.75654832294733</v>
+        <v>11.75654832294737</v>
       </c>
       <c r="I18" t="n">
-        <v>87.39779121528358</v>
+        <v>87.39779121528383</v>
       </c>
     </row>
     <row r="19">
@@ -64788,28 +64788,28 @@
         <v>15</v>
       </c>
       <c r="B19" t="n">
-        <v>61.18126697103191</v>
+        <v>61.18126697103189</v>
       </c>
       <c r="C19" t="n">
-        <v>27.49004388480166</v>
+        <v>27.49004388480157</v>
       </c>
       <c r="D19" t="n">
-        <v>25.92213086971326</v>
+        <v>25.92213086971319</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2754734488291259</v>
+        <v>0.2754734488291252</v>
       </c>
       <c r="G19" t="n">
-        <v>21.82262011489617</v>
+        <v>21.82262011489616</v>
       </c>
       <c r="H19" t="n">
-        <v>13.13039320694482</v>
+        <v>13.13039320694477</v>
       </c>
       <c r="I19" t="n">
-        <v>96.51308453312144</v>
+        <v>96.51308453312116</v>
       </c>
     </row>
     <row r="20">
@@ -64817,28 +64817,28 @@
         <v>16</v>
       </c>
       <c r="B20" t="n">
-        <v>55.8838559185069</v>
+        <v>55.88385591850691</v>
       </c>
       <c r="C20" t="n">
-        <v>46.80665561560889</v>
+        <v>46.8066556156089</v>
       </c>
       <c r="D20" t="n">
-        <v>22.95430382946722</v>
+        <v>22.95430382946724</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2543329270384171</v>
+        <v>0.2543329270384175</v>
       </c>
       <c r="G20" t="n">
-        <v>19.56599267235381</v>
+        <v>19.5659926723538</v>
       </c>
       <c r="H20" t="n">
-        <v>10.05909084588533</v>
+        <v>10.05909084588534</v>
       </c>
       <c r="I20" t="n">
-        <v>84.42878718248188</v>
+        <v>84.42878718248201</v>
       </c>
     </row>
     <row r="21">
@@ -64846,13 +64846,13 @@
         <v>17</v>
       </c>
       <c r="B21" t="n">
-        <v>66.62894237052558</v>
+        <v>66.62894237052561</v>
       </c>
       <c r="C21" t="n">
-        <v>58.23581245080807</v>
+        <v>58.23581245080806</v>
       </c>
       <c r="D21" t="n">
-        <v>34.55906854956822</v>
+        <v>34.55906854956823</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -64878,10 +64878,10 @@
         <v>41.61138479519718</v>
       </c>
       <c r="C22" t="n">
-        <v>47.11890292819857</v>
+        <v>47.11890292819859</v>
       </c>
       <c r="D22" t="n">
-        <v>21.14875818454438</v>
+        <v>21.14875818454439</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -64896,7 +64896,7 @@
         <v>9.934314971929313</v>
       </c>
       <c r="I22" t="n">
-        <v>85.57355055359999</v>
+        <v>85.5735505536</v>
       </c>
     </row>
     <row r="23">
@@ -64907,10 +64907,10 @@
         <v>50.21194862524148</v>
       </c>
       <c r="C23" t="n">
-        <v>53.26224258939776</v>
+        <v>53.26224258939774</v>
       </c>
       <c r="D23" t="n">
-        <v>24.00277440675891</v>
+        <v>24.00277440675889</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
